--- a/notebooks/saidas/SAIDA_MEAN_LINEAR_RSPI.xlsx
+++ b/notebooks/saidas/SAIDA_MEAN_LINEAR_RSPI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="179">
   <si>
     <t>Model</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Mean</t>
   </si>
   <si>
-    <t>(0.1, -1.0, 1, 0.95)</t>
+    <t>LINEAR_RSPI</t>
   </si>
   <si>
     <t>(0.1, -0.9, 1, 0.95)</t>
@@ -97,12 +97,6 @@
     <t>(0.1, 0.9, 1, 0.95)</t>
   </si>
   <si>
-    <t>(0.1, 1.0, 1, 0.95)</t>
-  </si>
-  <si>
-    <t>(0.2, -1.0, 1, 0.95)</t>
-  </si>
-  <si>
     <t>(0.2, -0.9, 1, 0.95)</t>
   </si>
   <si>
@@ -160,12 +154,6 @@
     <t>(0.2, 0.9, 1, 0.95)</t>
   </si>
   <si>
-    <t>(0.2, 1.0, 1, 0.95)</t>
-  </si>
-  <si>
-    <t>(0.3, -1.0, 1, 0.95)</t>
-  </si>
-  <si>
     <t>(0.3, -0.9, 1, 0.95)</t>
   </si>
   <si>
@@ -223,12 +211,6 @@
     <t>(0.3, 0.9, 1, 0.95)</t>
   </si>
   <si>
-    <t>(0.3, 1.0, 1, 0.95)</t>
-  </si>
-  <si>
-    <t>(0.4, -1.0, 1, 0.95)</t>
-  </si>
-  <si>
     <t>(0.4, -0.9, 1, 0.95)</t>
   </si>
   <si>
@@ -286,12 +268,6 @@
     <t>(0.4, 0.9, 1, 0.95)</t>
   </si>
   <si>
-    <t>(0.4, 1.0, 1, 0.95)</t>
-  </si>
-  <si>
-    <t>(0.5, -1.0, 1, 0.95)</t>
-  </si>
-  <si>
     <t>(0.5, -0.9, 1, 0.95)</t>
   </si>
   <si>
@@ -349,12 +325,6 @@
     <t>(0.5, 0.9, 1, 0.95)</t>
   </si>
   <si>
-    <t>(0.5, 1.0, 1, 0.95)</t>
-  </si>
-  <si>
-    <t>(0.6, -1.0, 1, 0.95)</t>
-  </si>
-  <si>
     <t>(0.6, -0.9, 1, 0.95)</t>
   </si>
   <si>
@@ -412,12 +382,6 @@
     <t>(0.6, 0.9, 1, 0.95)</t>
   </si>
   <si>
-    <t>(0.6, 1.0, 1, 0.95)</t>
-  </si>
-  <si>
-    <t>(0.7, -1.0, 1, 0.95)</t>
-  </si>
-  <si>
     <t>(0.7, -0.9, 1, 0.95)</t>
   </si>
   <si>
@@ -475,12 +439,6 @@
     <t>(0.7, 0.9, 1, 0.95)</t>
   </si>
   <si>
-    <t>(0.7, 1.0, 1, 0.95)</t>
-  </si>
-  <si>
-    <t>(0.8, -1.0, 1, 0.95)</t>
-  </si>
-  <si>
     <t>(0.8, -0.9, 1, 0.95)</t>
   </si>
   <si>
@@ -538,12 +496,6 @@
     <t>(0.8, 0.9, 1, 0.95)</t>
   </si>
   <si>
-    <t>(0.8, 1.0, 1, 0.95)</t>
-  </si>
-  <si>
-    <t>(0.9, -1.0, 1, 0.95)</t>
-  </si>
-  <si>
     <t>(0.9, -0.9, 1, 0.95)</t>
   </si>
   <si>
@@ -599,9 +551,6 @@
   </si>
   <si>
     <t>(0.9, 0.9, 1, 0.95)</t>
-  </si>
-  <si>
-    <t>(0.9, 1.0, 1, 0.95)</t>
   </si>
 </sst>
 </file>
@@ -959,7 +908,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H190"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -992,17 +941,17 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.95</v>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>0.1</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1011,24 +960,24 @@
         <v>0.95</v>
       </c>
       <c r="H2">
-        <v>1000</v>
+        <v>6.7839</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.95</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>0.1</v>
       </c>
       <c r="E3">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1037,24 +986,24 @@
         <v>0.95</v>
       </c>
       <c r="H3">
-        <v>6.8185</v>
+        <v>6.8298</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.95</v>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0.1</v>
       </c>
       <c r="E4">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1063,24 +1012,24 @@
         <v>0.95</v>
       </c>
       <c r="H4">
-        <v>6.8845</v>
+        <v>6.8665</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.95</v>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>0.1</v>
       </c>
       <c r="E5">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1089,24 +1038,24 @@
         <v>0.95</v>
       </c>
       <c r="H5">
-        <v>6.8467</v>
+        <v>6.8585</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.95</v>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>0.1</v>
       </c>
       <c r="E6">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1115,24 +1064,24 @@
         <v>0.95</v>
       </c>
       <c r="H6">
-        <v>6.8741</v>
+        <v>6.8277</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.95</v>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>0.1</v>
       </c>
       <c r="E7">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1141,24 +1090,24 @@
         <v>0.95</v>
       </c>
       <c r="H7">
-        <v>6.887</v>
+        <v>6.8719</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.95</v>
+      <c r="B8" t="s">
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>0.1</v>
       </c>
       <c r="E8">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1167,24 +1116,24 @@
         <v>0.95</v>
       </c>
       <c r="H8">
-        <v>6.8479</v>
+        <v>6.8119</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.95</v>
+      <c r="B9" t="s">
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>0.1</v>
       </c>
       <c r="E9">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1193,24 +1142,24 @@
         <v>0.95</v>
       </c>
       <c r="H9">
-        <v>6.793</v>
+        <v>6.8299</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.95</v>
+      <c r="B10" t="s">
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>0.1</v>
       </c>
       <c r="E10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1219,24 +1168,24 @@
         <v>0.95</v>
       </c>
       <c r="H10">
-        <v>6.8302</v>
+        <v>6.8207</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0.95</v>
+      <c r="B11" t="s">
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>0.1</v>
       </c>
       <c r="E11">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1245,24 +1194,24 @@
         <v>0.95</v>
       </c>
       <c r="H11">
-        <v>6.8426</v>
+        <v>6.8885</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0.95</v>
+      <c r="B12" t="s">
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>0.1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1271,24 +1220,24 @@
         <v>0.95</v>
       </c>
       <c r="H12">
-        <v>6.8749</v>
+        <v>6.8315</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.95</v>
+      <c r="B13" t="s">
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>0.1</v>
       </c>
       <c r="E13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1297,24 +1246,24 @@
         <v>0.95</v>
       </c>
       <c r="H13">
-        <v>6.8487</v>
+        <v>7.4004</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0.95</v>
+      <c r="B14" t="s">
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>0.1</v>
       </c>
       <c r="E14">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1323,24 +1272,24 @@
         <v>0.95</v>
       </c>
       <c r="H14">
-        <v>7.3775</v>
+        <v>7.4751</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0.95</v>
+      <c r="B15" t="s">
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>0.1</v>
       </c>
       <c r="E15">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1349,24 +1298,24 @@
         <v>0.95</v>
       </c>
       <c r="H15">
-        <v>7.491</v>
+        <v>7.4771</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0.95</v>
+      <c r="B16" t="s">
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>0.1</v>
       </c>
       <c r="E16">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1375,24 +1324,24 @@
         <v>0.95</v>
       </c>
       <c r="H16">
-        <v>7.4812</v>
+        <v>7.6523</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0.95</v>
+      <c r="B17" t="s">
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>0.1</v>
       </c>
       <c r="E17">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1401,24 +1350,24 @@
         <v>0.95</v>
       </c>
       <c r="H17">
-        <v>7.649</v>
+        <v>7.6338</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0.95</v>
+      <c r="B18" t="s">
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>0.1</v>
       </c>
       <c r="E18">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1427,24 +1376,24 @@
         <v>0.95</v>
       </c>
       <c r="H18">
-        <v>7.6093</v>
+        <v>9.1258</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0.95</v>
+      <c r="B19" t="s">
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>0.1</v>
       </c>
       <c r="E19">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1453,24 +1402,24 @@
         <v>0.95</v>
       </c>
       <c r="H19">
-        <v>9.1205</v>
+        <v>9.103300000000001</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0.95</v>
+      <c r="B20" t="s">
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20">
         <v>0.1</v>
       </c>
       <c r="E20">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1479,24 +1428,24 @@
         <v>0.95</v>
       </c>
       <c r="H20">
-        <v>9.112299999999999</v>
+        <v>9.3011</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0.95</v>
+      <c r="B21" t="s">
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E21">
-        <v>0.9</v>
+        <v>-0.9</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1505,24 +1454,24 @@
         <v>0.95</v>
       </c>
       <c r="H21">
-        <v>9.296900000000001</v>
+        <v>9.5816</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0.95</v>
+      <c r="B22" t="s">
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>-0.8</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1531,24 +1480,24 @@
         <v>0.95</v>
       </c>
       <c r="H22">
-        <v>9.306100000000001</v>
+        <v>9.584</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0.95</v>
+      <c r="B23" t="s">
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23">
         <v>0.2</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>-0.7</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1557,24 +1506,24 @@
         <v>0.95</v>
       </c>
       <c r="H23">
-        <v>1000</v>
+        <v>9.7037</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0.95</v>
+      <c r="B24" t="s">
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24">
         <v>0.2</v>
       </c>
       <c r="E24">
-        <v>-0.9</v>
+        <v>-0.6</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1583,24 +1532,24 @@
         <v>0.95</v>
       </c>
       <c r="H24">
-        <v>9.625</v>
+        <v>9.6927</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0.95</v>
+      <c r="B25" t="s">
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25">
         <v>0.2</v>
       </c>
       <c r="E25">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1609,24 +1558,24 @@
         <v>0.95</v>
       </c>
       <c r="H25">
-        <v>9.5008</v>
+        <v>9.5997</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>0.95</v>
+      <c r="B26" t="s">
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>0.2</v>
       </c>
       <c r="E26">
-        <v>-0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1635,24 +1584,24 @@
         <v>0.95</v>
       </c>
       <c r="H26">
-        <v>9.611700000000001</v>
+        <v>9.6754</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>0.95</v>
+      <c r="B27" t="s">
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>0.2</v>
       </c>
       <c r="E27">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1661,24 +1610,24 @@
         <v>0.95</v>
       </c>
       <c r="H27">
-        <v>9.5915</v>
+        <v>9.689</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>0.95</v>
+      <c r="B28" t="s">
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D28">
         <v>0.2</v>
       </c>
       <c r="E28">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1687,24 +1636,24 @@
         <v>0.95</v>
       </c>
       <c r="H28">
-        <v>9.598599999999999</v>
+        <v>9.571300000000001</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>0.95</v>
+      <c r="B29" t="s">
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29">
         <v>0.2</v>
       </c>
       <c r="E29">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1713,24 +1662,24 @@
         <v>0.95</v>
       </c>
       <c r="H29">
-        <v>9.587400000000001</v>
+        <v>9.601900000000001</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>0.95</v>
+      <c r="B30" t="s">
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30">
         <v>0.2</v>
       </c>
       <c r="E30">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1739,24 +1688,24 @@
         <v>0.95</v>
       </c>
       <c r="H30">
-        <v>9.673400000000001</v>
+        <v>8.615500000000001</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>0.95</v>
+      <c r="B31" t="s">
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31">
         <v>0.2</v>
       </c>
       <c r="E31">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1765,24 +1714,24 @@
         <v>0.95</v>
       </c>
       <c r="H31">
-        <v>9.598699999999999</v>
+        <v>8.577400000000001</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>0.95</v>
+      <c r="B32" t="s">
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D32">
         <v>0.2</v>
       </c>
       <c r="E32">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1791,24 +1740,24 @@
         <v>0.95</v>
       </c>
       <c r="H32">
-        <v>9.4259</v>
+        <v>8.6279</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>0.95</v>
+      <c r="B33" t="s">
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D33">
         <v>0.2</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1817,24 +1766,24 @@
         <v>0.95</v>
       </c>
       <c r="H33">
-        <v>8.580299999999999</v>
+        <v>9.6335</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>0.95</v>
+      <c r="B34" t="s">
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D34">
         <v>0.2</v>
       </c>
       <c r="E34">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1843,24 +1792,24 @@
         <v>0.95</v>
       </c>
       <c r="H34">
-        <v>8.575200000000001</v>
+        <v>9.6441</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>0.95</v>
+      <c r="B35" t="s">
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D35">
         <v>0.2</v>
       </c>
       <c r="E35">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1869,24 +1818,24 @@
         <v>0.95</v>
       </c>
       <c r="H35">
-        <v>8.6426</v>
+        <v>9.6412</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>0.95</v>
+      <c r="B36" t="s">
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D36">
         <v>0.2</v>
       </c>
       <c r="E36">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1895,24 +1844,24 @@
         <v>0.95</v>
       </c>
       <c r="H36">
-        <v>9.6714</v>
+        <v>11.1986</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>0.95</v>
+      <c r="B37" t="s">
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D37">
         <v>0.2</v>
       </c>
       <c r="E37">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1921,24 +1870,24 @@
         <v>0.95</v>
       </c>
       <c r="H37">
-        <v>9.651400000000001</v>
+        <v>11.2011</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>0.95</v>
+      <c r="B38" t="s">
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D38">
         <v>0.2</v>
       </c>
       <c r="E38">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1947,24 +1896,24 @@
         <v>0.95</v>
       </c>
       <c r="H38">
-        <v>9.652900000000001</v>
+        <v>13.0931</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>0.95</v>
+      <c r="B39" t="s">
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D39">
         <v>0.2</v>
       </c>
       <c r="E39">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1973,24 +1922,24 @@
         <v>0.95</v>
       </c>
       <c r="H39">
-        <v>11.2253</v>
+        <v>13.0701</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>0.95</v>
+      <c r="B40" t="s">
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D40">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E40">
-        <v>0.7</v>
+        <v>-0.9</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1999,24 +1948,24 @@
         <v>0.95</v>
       </c>
       <c r="H40">
-        <v>11.2288</v>
+        <v>14.2051</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>0.95</v>
+      <c r="B41" t="s">
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D41">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E41">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2025,24 +1974,24 @@
         <v>0.95</v>
       </c>
       <c r="H41">
-        <v>13.0719</v>
+        <v>14.2527</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>0.95</v>
+      <c r="B42" t="s">
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D42">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E42">
-        <v>0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -2051,24 +2000,24 @@
         <v>0.95</v>
       </c>
       <c r="H42">
-        <v>13.0827</v>
+        <v>14.0525</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43">
-        <v>0.95</v>
+      <c r="B43" t="s">
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D43">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>-0.6</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -2077,24 +2026,24 @@
         <v>0.95</v>
       </c>
       <c r="H43">
-        <v>13.0746</v>
+        <v>14.1053</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44">
-        <v>0.95</v>
+      <c r="B44" t="s">
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D44">
         <v>0.3</v>
       </c>
       <c r="E44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2103,24 +2052,24 @@
         <v>0.95</v>
       </c>
       <c r="H44">
-        <v>1000</v>
+        <v>14.0862</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45">
-        <v>0.95</v>
+      <c r="B45" t="s">
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D45">
         <v>0.3</v>
       </c>
       <c r="E45">
-        <v>-0.9</v>
+        <v>-0.4</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2129,24 +2078,24 @@
         <v>0.95</v>
       </c>
       <c r="H45">
-        <v>14.2828</v>
+        <v>14.0907</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>0.95</v>
+      <c r="B46" t="s">
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D46">
         <v>0.3</v>
       </c>
       <c r="E46">
-        <v>-0.8</v>
+        <v>-0.3</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2155,24 +2104,24 @@
         <v>0.95</v>
       </c>
       <c r="H46">
-        <v>14.0232</v>
+        <v>14.2762</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>0.95</v>
+      <c r="B47" t="s">
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D47">
         <v>0.3</v>
       </c>
       <c r="E47">
-        <v>-0.7</v>
+        <v>-0.2</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -2181,24 +2130,24 @@
         <v>0.95</v>
       </c>
       <c r="H47">
-        <v>14.1307</v>
+        <v>14.1696</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>0.95</v>
+      <c r="B48" t="s">
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D48">
         <v>0.3</v>
       </c>
       <c r="E48">
-        <v>-0.6</v>
+        <v>-0.1</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -2207,24 +2156,24 @@
         <v>0.95</v>
       </c>
       <c r="H48">
-        <v>14.0333</v>
+        <v>10.871</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>0.95</v>
+      <c r="B49" t="s">
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D49">
         <v>0.3</v>
       </c>
       <c r="E49">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2233,24 +2182,24 @@
         <v>0.95</v>
       </c>
       <c r="H49">
-        <v>14.1799</v>
+        <v>10.7417</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>0.95</v>
+      <c r="B50" t="s">
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D50">
         <v>0.3</v>
       </c>
       <c r="E50">
-        <v>-0.4</v>
+        <v>0.1</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -2259,24 +2208,24 @@
         <v>0.95</v>
       </c>
       <c r="H50">
-        <v>14.1629</v>
+        <v>10.8219</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>0.95</v>
+      <c r="B51" t="s">
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D51">
         <v>0.3</v>
       </c>
       <c r="E51">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2285,24 +2234,24 @@
         <v>0.95</v>
       </c>
       <c r="H51">
-        <v>14.1894</v>
+        <v>10.7884</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52">
-        <v>0.95</v>
+      <c r="B52" t="s">
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D52">
         <v>0.3</v>
       </c>
       <c r="E52">
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -2311,24 +2260,24 @@
         <v>0.95</v>
       </c>
       <c r="H52">
-        <v>14.1175</v>
+        <v>11.9094</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>0.95</v>
+      <c r="B53" t="s">
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D53">
         <v>0.3</v>
       </c>
       <c r="E53">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -2337,24 +2286,24 @@
         <v>0.95</v>
       </c>
       <c r="H53">
-        <v>10.7746</v>
+        <v>13.4457</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>0.95</v>
+      <c r="B54" t="s">
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D54">
         <v>0.3</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2363,24 +2312,24 @@
         <v>0.95</v>
       </c>
       <c r="H54">
-        <v>10.7904</v>
+        <v>13.4088</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55">
-        <v>0.95</v>
+      <c r="B55" t="s">
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D55">
         <v>0.3</v>
       </c>
       <c r="E55">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2389,24 +2338,24 @@
         <v>0.95</v>
       </c>
       <c r="H55">
-        <v>10.8188</v>
+        <v>13.4135</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>0.95</v>
+      <c r="B56" t="s">
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D56">
         <v>0.3</v>
       </c>
       <c r="E56">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2415,24 +2364,24 @@
         <v>0.95</v>
       </c>
       <c r="H56">
-        <v>10.7955</v>
+        <v>15.1973</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57">
-        <v>0.95</v>
+      <c r="B57" t="s">
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D57">
         <v>0.3</v>
       </c>
       <c r="E57">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2441,24 +2390,24 @@
         <v>0.95</v>
       </c>
       <c r="H57">
-        <v>11.844</v>
+        <v>17.0975</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58">
-        <v>0.95</v>
+      <c r="B58" t="s">
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D58">
         <v>0.3</v>
       </c>
       <c r="E58">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2467,24 +2416,24 @@
         <v>0.95</v>
       </c>
       <c r="H58">
-        <v>13.4609</v>
+        <v>17.0842</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59">
-        <v>0.95</v>
+      <c r="B59" t="s">
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D59">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E59">
-        <v>0.5</v>
+        <v>-0.9</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -2493,24 +2442,24 @@
         <v>0.95</v>
       </c>
       <c r="H59">
-        <v>13.4154</v>
+        <v>22.1628</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60">
-        <v>0.95</v>
+      <c r="B60" t="s">
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D60">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E60">
-        <v>0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2519,24 +2468,24 @@
         <v>0.95</v>
       </c>
       <c r="H60">
-        <v>13.4289</v>
+        <v>21.7233</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61">
-        <v>0.95</v>
+      <c r="B61" t="s">
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D61">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E61">
-        <v>0.7</v>
+        <v>-0.7</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2545,24 +2494,24 @@
         <v>0.95</v>
       </c>
       <c r="H61">
-        <v>15.155</v>
+        <v>22.1058</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>0.95</v>
+      <c r="B62" t="s">
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D62">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E62">
-        <v>0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -2571,24 +2520,24 @@
         <v>0.95</v>
       </c>
       <c r="H62">
-        <v>17.0918</v>
+        <v>22.0197</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63">
-        <v>0.95</v>
+      <c r="B63" t="s">
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D63">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E63">
-        <v>0.9</v>
+        <v>-0.5</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -2597,24 +2546,24 @@
         <v>0.95</v>
       </c>
       <c r="H63">
-        <v>17.0982</v>
+        <v>21.6721</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64">
-        <v>0.95</v>
+      <c r="B64" t="s">
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D64">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>-0.4</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2623,24 +2572,24 @@
         <v>0.95</v>
       </c>
       <c r="H64">
-        <v>15.1802</v>
+        <v>22.2865</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65">
-        <v>0.95</v>
+      <c r="B65" t="s">
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D65">
         <v>0.4</v>
       </c>
       <c r="E65">
-        <v>-1</v>
+        <v>-0.3</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -2649,24 +2598,24 @@
         <v>0.95</v>
       </c>
       <c r="H65">
-        <v>1000</v>
+        <v>22.1911</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66">
-        <v>0.95</v>
+      <c r="B66" t="s">
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D66">
         <v>0.4</v>
       </c>
       <c r="E66">
-        <v>-0.9</v>
+        <v>-0.2</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -2675,24 +2624,24 @@
         <v>0.95</v>
       </c>
       <c r="H66">
-        <v>21.9397</v>
+        <v>14.7557</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67">
-        <v>0.95</v>
+      <c r="B67" t="s">
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D67">
         <v>0.4</v>
       </c>
       <c r="E67">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2701,24 +2650,24 @@
         <v>0.95</v>
       </c>
       <c r="H67">
-        <v>22.2669</v>
+        <v>14.8725</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68">
-        <v>0.95</v>
+      <c r="B68" t="s">
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D68">
         <v>0.4</v>
       </c>
       <c r="E68">
-        <v>-0.7</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -2727,24 +2676,24 @@
         <v>0.95</v>
       </c>
       <c r="H68">
-        <v>21.8091</v>
+        <v>13.3911</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69">
-        <v>0.95</v>
+      <c r="B69" t="s">
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D69">
         <v>0.4</v>
       </c>
       <c r="E69">
-        <v>-0.6</v>
+        <v>0.1</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -2753,24 +2702,24 @@
         <v>0.95</v>
       </c>
       <c r="H69">
-        <v>22.0337</v>
+        <v>13.3416</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70">
-        <v>0.95</v>
+      <c r="B70" t="s">
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D70">
         <v>0.4</v>
       </c>
       <c r="E70">
-        <v>-0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -2779,24 +2728,24 @@
         <v>0.95</v>
       </c>
       <c r="H70">
-        <v>21.7315</v>
+        <v>13.4674</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71">
-        <v>0.95</v>
+      <c r="B71" t="s">
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D71">
         <v>0.4</v>
       </c>
       <c r="E71">
-        <v>-0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -2805,24 +2754,24 @@
         <v>0.95</v>
       </c>
       <c r="H71">
-        <v>21.7855</v>
+        <v>14.4726</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72">
-        <v>0.95</v>
+      <c r="B72" t="s">
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D72">
         <v>0.4</v>
       </c>
       <c r="E72">
-        <v>-0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -2831,24 +2780,24 @@
         <v>0.95</v>
       </c>
       <c r="H72">
-        <v>22.0429</v>
+        <v>15.8447</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73">
-        <v>0.95</v>
+      <c r="B73" t="s">
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D73">
         <v>0.4</v>
       </c>
       <c r="E73">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -2857,24 +2806,24 @@
         <v>0.95</v>
       </c>
       <c r="H73">
-        <v>14.7217</v>
+        <v>15.8061</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74">
-        <v>0.95</v>
+      <c r="B74" t="s">
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D74">
         <v>0.4</v>
       </c>
       <c r="E74">
-        <v>-0.1</v>
+        <v>0.6</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -2883,24 +2832,24 @@
         <v>0.95</v>
       </c>
       <c r="H74">
-        <v>14.8706</v>
+        <v>15.8114</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75">
-        <v>0.95</v>
+      <c r="B75" t="s">
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D75">
         <v>0.4</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -2909,24 +2858,24 @@
         <v>0.95</v>
       </c>
       <c r="H75">
-        <v>13.4584</v>
+        <v>19.2704</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76">
-        <v>0.95</v>
+      <c r="B76" t="s">
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D76">
         <v>0.4</v>
       </c>
       <c r="E76">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -2935,24 +2884,24 @@
         <v>0.95</v>
       </c>
       <c r="H76">
-        <v>13.256</v>
+        <v>17.4819</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77">
-        <v>0.95</v>
+      <c r="B77" t="s">
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D77">
         <v>0.4</v>
       </c>
       <c r="E77">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -2961,24 +2910,24 @@
         <v>0.95</v>
       </c>
       <c r="H77">
-        <v>13.4792</v>
+        <v>17.4764</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78">
-        <v>0.95</v>
+      <c r="B78" t="s">
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D78">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E78">
-        <v>0.3</v>
+        <v>-0.9</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -2987,24 +2936,24 @@
         <v>0.95</v>
       </c>
       <c r="H78">
-        <v>14.4929</v>
+        <v>36.9336</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79">
-        <v>0.95</v>
+      <c r="B79" t="s">
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D79">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E79">
-        <v>0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -3013,24 +2962,24 @@
         <v>0.95</v>
       </c>
       <c r="H79">
-        <v>15.8895</v>
+        <v>36.6617</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80">
-        <v>0.95</v>
+      <c r="B80" t="s">
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D80">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E80">
-        <v>0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -3039,24 +2988,24 @@
         <v>0.95</v>
       </c>
       <c r="H80">
-        <v>15.8135</v>
+        <v>37.2112</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81">
-        <v>0.95</v>
+      <c r="B81" t="s">
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D81">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E81">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -3065,24 +3014,24 @@
         <v>0.95</v>
       </c>
       <c r="H81">
-        <v>15.8</v>
+        <v>37.0503</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82">
-        <v>0.95</v>
+      <c r="B82" t="s">
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D82">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E82">
-        <v>0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -3091,24 +3040,24 @@
         <v>0.95</v>
       </c>
       <c r="H82">
-        <v>19.2696</v>
+        <v>37.1076</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83">
-        <v>0.95</v>
+      <c r="B83" t="s">
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D83">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E83">
-        <v>0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -3117,24 +3066,24 @@
         <v>0.95</v>
       </c>
       <c r="H83">
-        <v>17.4978</v>
+        <v>37.5491</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84">
-        <v>0.95</v>
+      <c r="B84" t="s">
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D84">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E84">
-        <v>0.9</v>
+        <v>-0.3</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -3143,24 +3092,24 @@
         <v>0.95</v>
       </c>
       <c r="H84">
-        <v>17.4527</v>
+        <v>37.2073</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85">
-        <v>0.95</v>
+      <c r="B85" t="s">
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D85">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>-0.2</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -3169,24 +3118,24 @@
         <v>0.95</v>
       </c>
       <c r="H85">
-        <v>19.2769</v>
+        <v>21.9906</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86">
-        <v>0.95</v>
+      <c r="B86" t="s">
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D86">
         <v>0.5</v>
       </c>
       <c r="E86">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -3195,24 +3144,24 @@
         <v>0.95</v>
       </c>
       <c r="H86">
-        <v>1000</v>
+        <v>18.2165</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87">
-        <v>0.95</v>
+      <c r="B87" t="s">
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D87">
         <v>0.5</v>
       </c>
       <c r="E87">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -3221,24 +3170,24 @@
         <v>0.95</v>
       </c>
       <c r="H87">
-        <v>36.8692</v>
+        <v>18.0933</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88">
-        <v>0.95</v>
+      <c r="B88" t="s">
+        <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D88">
         <v>0.5</v>
       </c>
       <c r="E88">
-        <v>-0.8</v>
+        <v>0.1</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -3247,24 +3196,24 @@
         <v>0.95</v>
       </c>
       <c r="H88">
-        <v>36.4748</v>
+        <v>16.9762</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89">
-        <v>0.95</v>
+      <c r="B89" t="s">
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D89">
         <v>0.5</v>
       </c>
       <c r="E89">
-        <v>-0.7</v>
+        <v>0.2</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -3273,24 +3222,24 @@
         <v>0.95</v>
       </c>
       <c r="H89">
-        <v>36.5892</v>
+        <v>17.0113</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90">
-        <v>0.95</v>
+      <c r="B90" t="s">
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D90">
         <v>0.5</v>
       </c>
       <c r="E90">
-        <v>-0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -3299,24 +3248,24 @@
         <v>0.95</v>
       </c>
       <c r="H90">
-        <v>36.6452</v>
+        <v>17.7166</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91">
-        <v>0.95</v>
+      <c r="B91" t="s">
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D91">
         <v>0.5</v>
       </c>
       <c r="E91">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -3325,24 +3274,24 @@
         <v>0.95</v>
       </c>
       <c r="H91">
-        <v>36.5669</v>
+        <v>18.7388</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92">
-        <v>0.95</v>
+      <c r="B92" t="s">
+        <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D92">
         <v>0.5</v>
       </c>
       <c r="E92">
-        <v>-0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -3351,24 +3300,24 @@
         <v>0.95</v>
       </c>
       <c r="H92">
-        <v>36.9402</v>
+        <v>18.7826</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93">
-        <v>0.95</v>
+      <c r="B93" t="s">
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D93">
         <v>0.5</v>
       </c>
       <c r="E93">
-        <v>-0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -3377,24 +3326,24 @@
         <v>0.95</v>
       </c>
       <c r="H93">
-        <v>37.3733</v>
+        <v>20.0867</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94">
-        <v>0.95</v>
+      <c r="B94" t="s">
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D94">
         <v>0.5</v>
       </c>
       <c r="E94">
-        <v>-0.2</v>
+        <v>0.7</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -3403,24 +3352,24 @@
         <v>0.95</v>
       </c>
       <c r="H94">
-        <v>22.1333</v>
+        <v>20.2488</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95">
-        <v>0.95</v>
+      <c r="B95" t="s">
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D95">
         <v>0.5</v>
       </c>
       <c r="E95">
-        <v>-0.1</v>
+        <v>0.8</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -3429,24 +3378,24 @@
         <v>0.95</v>
       </c>
       <c r="H95">
-        <v>18.1559</v>
+        <v>21.8912</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96">
-        <v>0.95</v>
+      <c r="B96" t="s">
+        <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D96">
         <v>0.5</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -3455,24 +3404,24 @@
         <v>0.95</v>
       </c>
       <c r="H96">
-        <v>18.0806</v>
+        <v>23.5729</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97">
-        <v>0.95</v>
+      <c r="B97" t="s">
+        <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D97">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E97">
-        <v>0.1</v>
+        <v>-0.9</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -3481,24 +3430,24 @@
         <v>0.95</v>
       </c>
       <c r="H97">
-        <v>16.7229</v>
+        <v>71.1186</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98">
-        <v>0.95</v>
+      <c r="B98" t="s">
+        <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D98">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E98">
-        <v>0.2</v>
+        <v>-0.8</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -3507,24 +3456,24 @@
         <v>0.95</v>
       </c>
       <c r="H98">
-        <v>16.9377</v>
+        <v>70.1427</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99">
-        <v>0.95</v>
+      <c r="B99" t="s">
+        <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D99">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E99">
-        <v>0.3</v>
+        <v>-0.7</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -3533,24 +3482,24 @@
         <v>0.95</v>
       </c>
       <c r="H99">
-        <v>17.5986</v>
+        <v>69.9679</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100">
-        <v>0.95</v>
+      <c r="B100" t="s">
+        <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D100">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E100">
-        <v>0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -3559,24 +3508,24 @@
         <v>0.95</v>
       </c>
       <c r="H100">
-        <v>18.7291</v>
+        <v>70.0367</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101">
-        <v>0.95</v>
+      <c r="B101" t="s">
+        <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D101">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E101">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -3585,24 +3534,24 @@
         <v>0.95</v>
       </c>
       <c r="H101">
-        <v>18.8469</v>
+        <v>70.9042</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102">
-        <v>0.95</v>
+      <c r="B102" t="s">
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D102">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E102">
-        <v>0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -3611,24 +3560,24 @@
         <v>0.95</v>
       </c>
       <c r="H102">
-        <v>20.0335</v>
+        <v>71.31229999999999</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103">
-        <v>0.95</v>
+      <c r="B103" t="s">
+        <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D103">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E103">
-        <v>0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -3637,24 +3586,24 @@
         <v>0.95</v>
       </c>
       <c r="H103">
-        <v>20.1258</v>
+        <v>37.7996</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104">
-        <v>0.95</v>
+      <c r="B104" t="s">
+        <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D104">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E104">
-        <v>0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -3663,24 +3612,24 @@
         <v>0.95</v>
       </c>
       <c r="H104">
-        <v>21.773</v>
+        <v>38.0154</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105">
-        <v>0.95</v>
+      <c r="B105" t="s">
+        <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D105">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E105">
-        <v>0.9</v>
+        <v>-0.1</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -3689,24 +3638,24 @@
         <v>0.95</v>
       </c>
       <c r="H105">
-        <v>23.4921</v>
+        <v>28.3474</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106">
-        <v>0.95</v>
+      <c r="B106" t="s">
+        <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D106">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -3715,24 +3664,24 @@
         <v>0.95</v>
       </c>
       <c r="H106">
-        <v>23.5229</v>
+        <v>24.2717</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107">
-        <v>0.95</v>
+      <c r="B107" t="s">
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D107">
         <v>0.6</v>
       </c>
       <c r="E107">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -3741,24 +3690,24 @@
         <v>0.95</v>
       </c>
       <c r="H107">
-        <v>1000</v>
+        <v>22.5937</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108">
-        <v>0.95</v>
+      <c r="B108" t="s">
+        <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D108">
         <v>0.6</v>
       </c>
       <c r="E108">
-        <v>-0.9</v>
+        <v>0.2</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -3767,24 +3716,24 @@
         <v>0.95</v>
       </c>
       <c r="H108">
-        <v>70.37090000000001</v>
+        <v>21.9865</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109">
-        <v>0.95</v>
+      <c r="B109" t="s">
+        <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D109">
         <v>0.6</v>
       </c>
       <c r="E109">
-        <v>-0.8</v>
+        <v>0.3</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -3793,24 +3742,24 @@
         <v>0.95</v>
       </c>
       <c r="H109">
-        <v>69.44450000000001</v>
+        <v>22.2705</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110">
-        <v>0.95</v>
+      <c r="B110" t="s">
+        <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D110">
         <v>0.6</v>
       </c>
       <c r="E110">
-        <v>-0.7</v>
+        <v>0.4</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -3819,24 +3768,24 @@
         <v>0.95</v>
       </c>
       <c r="H110">
-        <v>70.91670000000001</v>
+        <v>22.9133</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111">
-        <v>0.95</v>
+      <c r="B111" t="s">
+        <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D111">
         <v>0.6</v>
       </c>
       <c r="E111">
-        <v>-0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -3845,24 +3794,24 @@
         <v>0.95</v>
       </c>
       <c r="H111">
-        <v>69.4053</v>
+        <v>22.9901</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112">
-        <v>0.95</v>
+      <c r="B112" t="s">
+        <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D112">
         <v>0.6</v>
       </c>
       <c r="E112">
-        <v>-0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -3871,24 +3820,24 @@
         <v>0.95</v>
       </c>
       <c r="H112">
-        <v>70.9417</v>
+        <v>23.9445</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113">
-        <v>0.95</v>
+      <c r="B113" t="s">
+        <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D113">
         <v>0.6</v>
       </c>
       <c r="E113">
-        <v>-0.4</v>
+        <v>0.7</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -3897,24 +3846,24 @@
         <v>0.95</v>
       </c>
       <c r="H113">
-        <v>70.7009</v>
+        <v>25.3013</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114">
-        <v>0.95</v>
+      <c r="B114" t="s">
+        <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D114">
         <v>0.6</v>
       </c>
       <c r="E114">
-        <v>-0.3</v>
+        <v>0.8</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -3923,24 +3872,24 @@
         <v>0.95</v>
       </c>
       <c r="H114">
-        <v>38.444</v>
+        <v>25.4237</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115">
-        <v>0.95</v>
+      <c r="B115" t="s">
+        <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D115">
         <v>0.6</v>
       </c>
       <c r="E115">
-        <v>-0.2</v>
+        <v>0.9</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -3949,24 +3898,24 @@
         <v>0.95</v>
       </c>
       <c r="H115">
-        <v>37.636</v>
+        <v>26.6172</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116">
-        <v>0.95</v>
+      <c r="B116" t="s">
+        <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D116">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E116">
-        <v>-0.1</v>
+        <v>-0.9</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -3975,24 +3924,24 @@
         <v>0.95</v>
       </c>
       <c r="H116">
-        <v>28.6392</v>
+        <v>160.5153</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117">
-        <v>0.95</v>
+      <c r="B117" t="s">
+        <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D117">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -4001,24 +3950,24 @@
         <v>0.95</v>
       </c>
       <c r="H117">
-        <v>24.1778</v>
+        <v>160.5227</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118">
-        <v>0.95</v>
+      <c r="B118" t="s">
+        <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D118">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E118">
-        <v>0.1</v>
+        <v>-0.7</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -4027,24 +3976,24 @@
         <v>0.95</v>
       </c>
       <c r="H118">
-        <v>22.7088</v>
+        <v>160.4991</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119">
-        <v>0.95</v>
+      <c r="B119" t="s">
+        <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D119">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E119">
-        <v>0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -4053,24 +4002,24 @@
         <v>0.95</v>
       </c>
       <c r="H119">
-        <v>22.0923</v>
+        <v>160.7734</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120">
-        <v>0.95</v>
+      <c r="B120" t="s">
+        <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D120">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E120">
-        <v>0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -4079,24 +4028,24 @@
         <v>0.95</v>
       </c>
       <c r="H120">
-        <v>22.4647</v>
+        <v>161.8774</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121">
-        <v>0.95</v>
+      <c r="B121" t="s">
+        <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D121">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E121">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -4105,24 +4054,24 @@
         <v>0.95</v>
       </c>
       <c r="H121">
-        <v>22.9471</v>
+        <v>158.9084</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122">
-        <v>0.95</v>
+      <c r="B122" t="s">
+        <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D122">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E122">
-        <v>0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -4131,24 +4080,24 @@
         <v>0.95</v>
       </c>
       <c r="H122">
-        <v>22.9824</v>
+        <v>79.6281</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123">
-        <v>0.95</v>
+      <c r="B123" t="s">
+        <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D123">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E123">
-        <v>0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -4157,24 +4106,24 @@
         <v>0.95</v>
       </c>
       <c r="H123">
-        <v>24.0895</v>
+        <v>54.0416</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124">
-        <v>0.95</v>
+      <c r="B124" t="s">
+        <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D124">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E124">
-        <v>0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -4183,24 +4132,24 @@
         <v>0.95</v>
       </c>
       <c r="H124">
-        <v>25.2942</v>
+        <v>43.2176</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125">
-        <v>0.95</v>
+      <c r="B125" t="s">
+        <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D125">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E125">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -4209,24 +4158,24 @@
         <v>0.95</v>
       </c>
       <c r="H125">
-        <v>25.3415</v>
+        <v>36.1272</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126">
-        <v>0.95</v>
+      <c r="B126" t="s">
+        <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D126">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E126">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -4235,24 +4184,24 @@
         <v>0.95</v>
       </c>
       <c r="H126">
-        <v>26.5698</v>
+        <v>33.8726</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127">
-        <v>0.95</v>
+      <c r="B127" t="s">
+        <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D127">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -4261,24 +4210,24 @@
         <v>0.95</v>
       </c>
       <c r="H127">
-        <v>25.3086</v>
+        <v>30.6404</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128">
-        <v>0.95</v>
+      <c r="B128" t="s">
+        <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D128">
         <v>0.7</v>
       </c>
       <c r="E128">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -4287,24 +4236,24 @@
         <v>0.95</v>
       </c>
       <c r="H128">
-        <v>1000</v>
+        <v>31.1595</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129">
-        <v>0.95</v>
+      <c r="B129" t="s">
+        <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D129">
         <v>0.7</v>
       </c>
       <c r="E129">
-        <v>-0.9</v>
+        <v>0.4</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -4313,24 +4262,24 @@
         <v>0.95</v>
       </c>
       <c r="H129">
-        <v>162.5059</v>
+        <v>31.0985</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130">
-        <v>0.95</v>
+      <c r="B130" t="s">
+        <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D130">
         <v>0.7</v>
       </c>
       <c r="E130">
-        <v>-0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -4339,24 +4288,24 @@
         <v>0.95</v>
       </c>
       <c r="H130">
-        <v>160.2341</v>
+        <v>30.9676</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131">
-        <v>0.95</v>
+      <c r="B131" t="s">
+        <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D131">
         <v>0.7</v>
       </c>
       <c r="E131">
-        <v>-0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -4365,24 +4314,24 @@
         <v>0.95</v>
       </c>
       <c r="H131">
-        <v>162.3526</v>
+        <v>30.7849</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132">
-        <v>0.95</v>
+      <c r="B132" t="s">
+        <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D132">
         <v>0.7</v>
       </c>
       <c r="E132">
-        <v>-0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -4391,24 +4340,24 @@
         <v>0.95</v>
       </c>
       <c r="H132">
-        <v>162.5147</v>
+        <v>31.5194</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133">
-        <v>0.95</v>
+      <c r="B133" t="s">
+        <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D133">
         <v>0.7</v>
       </c>
       <c r="E133">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -4417,24 +4366,24 @@
         <v>0.95</v>
       </c>
       <c r="H133">
-        <v>162.4459</v>
+        <v>31.6003</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134">
-        <v>0.95</v>
+      <c r="B134" t="s">
+        <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D134">
         <v>0.7</v>
       </c>
       <c r="E134">
-        <v>-0.4</v>
+        <v>0.9</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -4443,24 +4392,24 @@
         <v>0.95</v>
       </c>
       <c r="H134">
-        <v>163.784</v>
+        <v>35.9524</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135">
-        <v>0.95</v>
+      <c r="B135" t="s">
+        <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D135">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E135">
-        <v>-0.3</v>
+        <v>-0.9</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -4469,24 +4418,24 @@
         <v>0.95</v>
       </c>
       <c r="H135">
-        <v>79.9633</v>
+        <v>451.8191</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136">
-        <v>0.95</v>
+      <c r="B136" t="s">
+        <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D136">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E136">
-        <v>-0.2</v>
+        <v>-0.8</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -4495,24 +4444,24 @@
         <v>0.95</v>
       </c>
       <c r="H136">
-        <v>54.7644</v>
+        <v>451.9954</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137">
-        <v>0.95</v>
+      <c r="B137" t="s">
+        <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D137">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E137">
-        <v>-0.1</v>
+        <v>-0.7</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -4521,24 +4470,24 @@
         <v>0.95</v>
       </c>
       <c r="H137">
-        <v>43.0875</v>
+        <v>451.6677</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138">
-        <v>0.95</v>
+      <c r="B138" t="s">
+        <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D138">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -4547,24 +4496,24 @@
         <v>0.95</v>
       </c>
       <c r="H138">
-        <v>36.7866</v>
+        <v>450.0507</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139">
-        <v>0.95</v>
+      <c r="B139" t="s">
+        <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D139">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E139">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -4573,24 +4522,24 @@
         <v>0.95</v>
       </c>
       <c r="H139">
-        <v>33.731</v>
+        <v>446.7806</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140">
-        <v>0.95</v>
+      <c r="B140" t="s">
+        <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D140">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E140">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -4599,24 +4548,24 @@
         <v>0.95</v>
       </c>
       <c r="H140">
-        <v>30.7996</v>
+        <v>237.924</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141">
-        <v>0.95</v>
+      <c r="B141" t="s">
+        <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D141">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E141">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -4625,24 +4574,24 @@
         <v>0.95</v>
       </c>
       <c r="H141">
-        <v>30.9076</v>
+        <v>232.5214</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142">
-        <v>0.95</v>
+      <c r="B142" t="s">
+        <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D142">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E142">
-        <v>0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -4651,24 +4600,24 @@
         <v>0.95</v>
       </c>
       <c r="H142">
-        <v>31.166</v>
+        <v>148.7098</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143">
-        <v>0.95</v>
+      <c r="B143" t="s">
+        <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D143">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E143">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -4677,24 +4626,24 @@
         <v>0.95</v>
       </c>
       <c r="H143">
-        <v>31.0101</v>
+        <v>109.8357</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144">
-        <v>0.95</v>
+      <c r="B144" t="s">
+        <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D144">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E144">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -4703,24 +4652,24 @@
         <v>0.95</v>
       </c>
       <c r="H144">
-        <v>31.0042</v>
+        <v>74.17189999999999</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145">
-        <v>0.95</v>
+      <c r="B145" t="s">
+        <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D145">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E145">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -4729,24 +4678,24 @@
         <v>0.95</v>
       </c>
       <c r="H145">
-        <v>31.4712</v>
+        <v>59.3345</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146">
-        <v>0.95</v>
+      <c r="B146" t="s">
+        <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D146">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E146">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -4755,24 +4704,24 @@
         <v>0.95</v>
       </c>
       <c r="H146">
-        <v>31.4537</v>
+        <v>52.0625</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147">
-        <v>0.95</v>
+      <c r="B147" t="s">
+        <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D147">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E147">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -4781,24 +4730,24 @@
         <v>0.95</v>
       </c>
       <c r="H147">
-        <v>35.6455</v>
+        <v>52.1119</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148">
-        <v>0.95</v>
+      <c r="B148" t="s">
+        <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D148">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -4807,24 +4756,24 @@
         <v>0.95</v>
       </c>
       <c r="H148">
-        <v>33.3683</v>
+        <v>49.8028</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149">
-        <v>0.95</v>
+      <c r="B149" t="s">
+        <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D149">
         <v>0.8</v>
       </c>
       <c r="E149">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -4833,24 +4782,24 @@
         <v>0.95</v>
       </c>
       <c r="H149">
-        <v>1000</v>
+        <v>49.9895</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150">
-        <v>0.95</v>
+      <c r="B150" t="s">
+        <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D150">
         <v>0.8</v>
       </c>
       <c r="E150">
-        <v>-0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -4859,24 +4808,24 @@
         <v>0.95</v>
       </c>
       <c r="H150">
-        <v>450.8121</v>
+        <v>48.5465</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151">
-        <v>0.95</v>
+      <c r="B151" t="s">
+        <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D151">
         <v>0.8</v>
       </c>
       <c r="E151">
-        <v>-0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -4885,24 +4834,24 @@
         <v>0.95</v>
       </c>
       <c r="H151">
-        <v>451.8175</v>
+        <v>48.0658</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152">
-        <v>0.95</v>
+      <c r="B152" t="s">
+        <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D152">
         <v>0.8</v>
       </c>
       <c r="E152">
-        <v>-0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -4911,24 +4860,24 @@
         <v>0.95</v>
       </c>
       <c r="H152">
-        <v>448.958</v>
+        <v>48.4131</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153">
-        <v>0.95</v>
+      <c r="B153" t="s">
+        <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D153">
         <v>0.8</v>
       </c>
       <c r="E153">
-        <v>-0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -4937,24 +4886,24 @@
         <v>0.95</v>
       </c>
       <c r="H153">
-        <v>448.0247</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154">
-        <v>0.95</v>
+      <c r="B154" t="s">
+        <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D154">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E154">
-        <v>-0.5</v>
+        <v>-0.9</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -4963,24 +4912,24 @@
         <v>0.95</v>
       </c>
       <c r="H154">
-        <v>448.9057</v>
+        <v>884.7076</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155">
-        <v>0.95</v>
+      <c r="B155" t="s">
+        <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D155">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E155">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -4989,24 +4938,24 @@
         <v>0.95</v>
       </c>
       <c r="H155">
-        <v>232.8734</v>
+        <v>889.2451</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156">
-        <v>0.95</v>
+      <c r="B156" t="s">
+        <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D156">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E156">
-        <v>-0.3</v>
+        <v>-0.7</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -5015,24 +4964,24 @@
         <v>0.95</v>
       </c>
       <c r="H156">
-        <v>232.5415</v>
+        <v>892.7718</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157">
-        <v>0.95</v>
+      <c r="B157" t="s">
+        <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D157">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E157">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -5041,24 +4990,24 @@
         <v>0.95</v>
       </c>
       <c r="H157">
-        <v>150.2372</v>
+        <v>886.0545</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158">
-        <v>0.95</v>
+      <c r="B158" t="s">
+        <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D158">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E158">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -5067,24 +5016,24 @@
         <v>0.95</v>
       </c>
       <c r="H158">
-        <v>108.0999</v>
+        <v>887.1305</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159">
-        <v>0.95</v>
+      <c r="B159" t="s">
+        <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D159">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -5093,24 +5042,24 @@
         <v>0.95</v>
       </c>
       <c r="H159">
-        <v>72.971</v>
+        <v>751.3367</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160">
-        <v>0.95</v>
+      <c r="B160" t="s">
+        <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D160">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E160">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="F160">
         <v>1</v>
@@ -5119,24 +5068,24 @@
         <v>0.95</v>
       </c>
       <c r="H160">
-        <v>58.8929</v>
+        <v>756.2179</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161">
-        <v>0.95</v>
+      <c r="B161" t="s">
+        <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D161">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E161">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -5145,24 +5094,24 @@
         <v>0.95</v>
       </c>
       <c r="H161">
-        <v>52.5937</v>
+        <v>507.3438</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162">
-        <v>0.95</v>
+      <c r="B162" t="s">
+        <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D162">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E162">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -5171,24 +5120,24 @@
         <v>0.95</v>
       </c>
       <c r="H162">
-        <v>52.4755</v>
+        <v>424.5531</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163">
-        <v>0.95</v>
+      <c r="B163" t="s">
+        <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D163">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E163">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -5197,24 +5146,24 @@
         <v>0.95</v>
       </c>
       <c r="H163">
-        <v>49.2327</v>
+        <v>300.7815</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164">
-        <v>0.95</v>
+      <c r="B164" t="s">
+        <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D164">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E164">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -5223,24 +5172,24 @@
         <v>0.95</v>
       </c>
       <c r="H164">
-        <v>50.9152</v>
+        <v>229.1059</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165">
-        <v>0.95</v>
+      <c r="B165" t="s">
+        <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D165">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E165">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F165">
         <v>1</v>
@@ -5249,24 +5198,24 @@
         <v>0.95</v>
       </c>
       <c r="H165">
-        <v>47.865</v>
+        <v>184.8162</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166">
-        <v>0.95</v>
+      <c r="B166" t="s">
+        <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D166">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E166">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -5275,24 +5224,24 @@
         <v>0.95</v>
       </c>
       <c r="H166">
-        <v>48.253</v>
+        <v>185.1016</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167">
-        <v>0.95</v>
+      <c r="B167" t="s">
+        <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D167">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E167">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -5301,24 +5250,24 @@
         <v>0.95</v>
       </c>
       <c r="H167">
-        <v>48.7177</v>
+        <v>183.0691</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168">
-        <v>0.95</v>
+      <c r="B168" t="s">
+        <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D168">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E168">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -5327,24 +5276,24 @@
         <v>0.95</v>
       </c>
       <c r="H168">
-        <v>41</v>
+        <v>166.2387</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169">
-        <v>0.95</v>
+      <c r="B169" t="s">
+        <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D169">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -5353,24 +5302,24 @@
         <v>0.95</v>
       </c>
       <c r="H169">
-        <v>47.645</v>
+        <v>146.8947</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170">
-        <v>0.95</v>
+      <c r="B170" t="s">
+        <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D170">
         <v>0.9</v>
       </c>
       <c r="E170">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -5379,24 +5328,24 @@
         <v>0.95</v>
       </c>
       <c r="H170">
-        <v>1000</v>
+        <v>41</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171">
-        <v>0.95</v>
+      <c r="B171" t="s">
+        <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D171">
         <v>0.9</v>
       </c>
       <c r="E171">
-        <v>-0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -5405,24 +5354,24 @@
         <v>0.95</v>
       </c>
       <c r="H171">
-        <v>885.122</v>
+        <v>167.5393</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172">
-        <v>0.95</v>
+      <c r="B172" t="s">
+        <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D172">
         <v>0.9</v>
       </c>
       <c r="E172">
-        <v>-0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -5431,475 +5380,7 @@
         <v>0.95</v>
       </c>
       <c r="H172">
-        <v>889.3595</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173">
-        <v>0.95</v>
-      </c>
-      <c r="C173" t="s">
-        <v>178</v>
-      </c>
-      <c r="D173">
-        <v>0.9</v>
-      </c>
-      <c r="E173">
-        <v>-0.7</v>
-      </c>
-      <c r="F173">
-        <v>1</v>
-      </c>
-      <c r="G173">
-        <v>0.95</v>
-      </c>
-      <c r="H173">
-        <v>888.4872</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174">
-        <v>0.95</v>
-      </c>
-      <c r="C174" t="s">
-        <v>179</v>
-      </c>
-      <c r="D174">
-        <v>0.9</v>
-      </c>
-      <c r="E174">
-        <v>-0.6</v>
-      </c>
-      <c r="F174">
-        <v>1</v>
-      </c>
-      <c r="G174">
-        <v>0.95</v>
-      </c>
-      <c r="H174">
-        <v>888.7365</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175">
-        <v>0.95</v>
-      </c>
-      <c r="C175" t="s">
-        <v>180</v>
-      </c>
-      <c r="D175">
-        <v>0.9</v>
-      </c>
-      <c r="E175">
-        <v>-0.5</v>
-      </c>
-      <c r="F175">
-        <v>1</v>
-      </c>
-      <c r="G175">
-        <v>0.95</v>
-      </c>
-      <c r="H175">
-        <v>886.4598999999999</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176">
-        <v>0.95</v>
-      </c>
-      <c r="C176" t="s">
-        <v>181</v>
-      </c>
-      <c r="D176">
-        <v>0.9</v>
-      </c>
-      <c r="E176">
-        <v>-0.4</v>
-      </c>
-      <c r="F176">
-        <v>1</v>
-      </c>
-      <c r="G176">
-        <v>0.95</v>
-      </c>
-      <c r="H176">
-        <v>750.8465</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177">
-        <v>0.95</v>
-      </c>
-      <c r="C177" t="s">
-        <v>182</v>
-      </c>
-      <c r="D177">
-        <v>0.9</v>
-      </c>
-      <c r="E177">
-        <v>-0.3</v>
-      </c>
-      <c r="F177">
-        <v>1</v>
-      </c>
-      <c r="G177">
-        <v>0.95</v>
-      </c>
-      <c r="H177">
-        <v>751.1138</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178">
-        <v>0.95</v>
-      </c>
-      <c r="C178" t="s">
-        <v>183</v>
-      </c>
-      <c r="D178">
-        <v>0.9</v>
-      </c>
-      <c r="E178">
-        <v>-0.2</v>
-      </c>
-      <c r="F178">
-        <v>1</v>
-      </c>
-      <c r="G178">
-        <v>0.95</v>
-      </c>
-      <c r="H178">
-        <v>513.9996</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179">
-        <v>0.95</v>
-      </c>
-      <c r="C179" t="s">
-        <v>184</v>
-      </c>
-      <c r="D179">
-        <v>0.9</v>
-      </c>
-      <c r="E179">
-        <v>-0.1</v>
-      </c>
-      <c r="F179">
-        <v>1</v>
-      </c>
-      <c r="G179">
-        <v>0.95</v>
-      </c>
-      <c r="H179">
-        <v>425.885</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="B180">
-        <v>0.95</v>
-      </c>
-      <c r="C180" t="s">
-        <v>185</v>
-      </c>
-      <c r="D180">
-        <v>0.9</v>
-      </c>
-      <c r="E180">
-        <v>0</v>
-      </c>
-      <c r="F180">
-        <v>1</v>
-      </c>
-      <c r="G180">
-        <v>0.95</v>
-      </c>
-      <c r="H180">
-        <v>304.5964</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-      <c r="B181">
-        <v>0.95</v>
-      </c>
-      <c r="C181" t="s">
-        <v>186</v>
-      </c>
-      <c r="D181">
-        <v>0.9</v>
-      </c>
-      <c r="E181">
-        <v>0.1</v>
-      </c>
-      <c r="F181">
-        <v>1</v>
-      </c>
-      <c r="G181">
-        <v>0.95</v>
-      </c>
-      <c r="H181">
-        <v>227.1354</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" s="1">
-        <v>180</v>
-      </c>
-      <c r="B182">
-        <v>0.95</v>
-      </c>
-      <c r="C182" t="s">
-        <v>187</v>
-      </c>
-      <c r="D182">
-        <v>0.9</v>
-      </c>
-      <c r="E182">
-        <v>0.2</v>
-      </c>
-      <c r="F182">
-        <v>1</v>
-      </c>
-      <c r="G182">
-        <v>0.95</v>
-      </c>
-      <c r="H182">
-        <v>183.7637</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-      <c r="B183">
-        <v>0.95</v>
-      </c>
-      <c r="C183" t="s">
-        <v>188</v>
-      </c>
-      <c r="D183">
-        <v>0.9</v>
-      </c>
-      <c r="E183">
-        <v>0.3</v>
-      </c>
-      <c r="F183">
-        <v>1</v>
-      </c>
-      <c r="G183">
-        <v>0.95</v>
-      </c>
-      <c r="H183">
-        <v>185.2851</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="B184">
-        <v>0.95</v>
-      </c>
-      <c r="C184" t="s">
-        <v>189</v>
-      </c>
-      <c r="D184">
-        <v>0.9</v>
-      </c>
-      <c r="E184">
-        <v>0.4</v>
-      </c>
-      <c r="F184">
-        <v>1</v>
-      </c>
-      <c r="G184">
-        <v>0.95</v>
-      </c>
-      <c r="H184">
-        <v>183.855</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
-      <c r="B185">
-        <v>0.95</v>
-      </c>
-      <c r="C185" t="s">
-        <v>190</v>
-      </c>
-      <c r="D185">
-        <v>0.9</v>
-      </c>
-      <c r="E185">
-        <v>0.5</v>
-      </c>
-      <c r="F185">
-        <v>1</v>
-      </c>
-      <c r="G185">
-        <v>0.95</v>
-      </c>
-      <c r="H185">
-        <v>171.8612</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="B186">
-        <v>0.95</v>
-      </c>
-      <c r="C186" t="s">
-        <v>191</v>
-      </c>
-      <c r="D186">
-        <v>0.9</v>
-      </c>
-      <c r="E186">
-        <v>0.6</v>
-      </c>
-      <c r="F186">
-        <v>1</v>
-      </c>
-      <c r="G186">
-        <v>0.95</v>
-      </c>
-      <c r="H186">
-        <v>147.6522</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="B187">
-        <v>0.95</v>
-      </c>
-      <c r="C187" t="s">
-        <v>192</v>
-      </c>
-      <c r="D187">
-        <v>0.9</v>
-      </c>
-      <c r="E187">
-        <v>0.7</v>
-      </c>
-      <c r="F187">
-        <v>1</v>
-      </c>
-      <c r="G187">
-        <v>0.95</v>
-      </c>
-      <c r="H187">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="B188">
-        <v>0.95</v>
-      </c>
-      <c r="C188" t="s">
-        <v>193</v>
-      </c>
-      <c r="D188">
-        <v>0.9</v>
-      </c>
-      <c r="E188">
-        <v>0.8</v>
-      </c>
-      <c r="F188">
-        <v>1</v>
-      </c>
-      <c r="G188">
-        <v>0.95</v>
-      </c>
-      <c r="H188">
-        <v>169.5238</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189">
-        <v>0.95</v>
-      </c>
-      <c r="C189" t="s">
-        <v>194</v>
-      </c>
-      <c r="D189">
-        <v>0.9</v>
-      </c>
-      <c r="E189">
-        <v>0.9</v>
-      </c>
-      <c r="F189">
-        <v>1</v>
-      </c>
-      <c r="G189">
-        <v>0.95</v>
-      </c>
-      <c r="H189">
-        <v>146.7058</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190">
-        <v>0.95</v>
-      </c>
-      <c r="C190" t="s">
-        <v>195</v>
-      </c>
-      <c r="D190">
-        <v>0.9</v>
-      </c>
-      <c r="E190">
-        <v>1</v>
-      </c>
-      <c r="F190">
-        <v>1</v>
-      </c>
-      <c r="G190">
-        <v>0.95</v>
-      </c>
-      <c r="H190">
-        <v>41</v>
+        <v>145.1725</v>
       </c>
     </row>
   </sheetData>
